--- a/wwwroot/uploads/تنقلات 2.xlsx
+++ b/wwwroot/uploads/تنقلات 2.xlsx
@@ -116,9 +116,6 @@
     <t>تخم كتان</t>
   </si>
   <si>
-    <t>1 قاشق چايخوري</t>
-  </si>
-  <si>
     <t>قيصي</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>عناب تازه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قاشق چايخوري</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T37" sqref="A37:T118"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <v>21</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
       </c>
       <c r="C29" s="1">
         <v>32</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>23</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
